--- a/results_with_pivotchart.xlsx
+++ b/results_with_pivotchart.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamn\projects\api_merge_sim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{458C278E-03A9-4663-B11B-E230C4DCFEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F51D54-D2DA-4CB6-9B3B-7D60316214D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35715" yWindow="5805" windowWidth="18975" windowHeight="14280"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,10 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,22 +597,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -3933,7 +3912,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Adam Weisberg" refreshedDate="44899.558055092595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="44899.558055092595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G301" sheet="simulation_results_10000"/>
   </cacheSource>
@@ -4204,7 +4183,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="300">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="300">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6909,7 +6888,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:E103" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -7493,13 +7472,13 @@
     <dataField name="Max of API Calls per Record" fld="2" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="50">
@@ -7557,7 +7536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="50">
@@ -7615,7 +7594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7965,7 +7944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7974,7 +7953,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -7982,7 +7961,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7990,7 +7969,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -8007,1719 +7986,1719 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0.01</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>12.611000000000001</v>
       </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
         <v>12.9613</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>0.02</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>21.988600000000002</v>
       </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
         <v>21.907900000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0.03</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>30.033799999999999</v>
       </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
         <v>28.412400000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>0.04</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>37.581400000000002</v>
       </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
         <v>35.235399999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>0.05</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>44.226399999999998</v>
       </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
         <v>40.510100000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>0.06</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>50.847200000000001</v>
       </c>
-      <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
         <v>45.179299999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>56.548400000000001</v>
       </c>
-      <c r="C9" s="2">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
         <v>50.346400000000003</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.08</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>62.078600000000002</v>
       </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
         <v>54.92</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>0.09</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>67.068799999999996</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
         <v>58.491199999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>0.1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>71.930999999999997</v>
       </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
         <v>62.314100000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>0.11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>76.766400000000004</v>
       </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
         <v>64.389499999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>0.12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>81.263999999999996</v>
       </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
         <v>67.599100000000007</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>0.13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>85.415999999999997</v>
       </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
         <v>72.602199999999996</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>89.612799999999993</v>
       </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
         <v>75.192800000000005</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>0.15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>93.507400000000004</v>
       </c>
-      <c r="C17" s="2">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
         <v>77.777600000000007</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>0.16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>97.534400000000005</v>
       </c>
-      <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
         <v>80.558999999999997</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>0.17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>101.34520000000001</v>
       </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
         <v>81.257000000000005</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>101.34520000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>0.18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>104.49160000000001</v>
       </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
         <v>82.763999999999996</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>104.49160000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>0.19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>107.688</v>
       </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
         <v>84.339399999999998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>107.688</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>0.2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>110.89400000000001</v>
       </c>
-      <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
         <v>85.973799999999997</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>110.89400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>0.21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>114.18380000000001</v>
       </c>
-      <c r="C23" s="2">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
         <v>87.668199999999999</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>114.18380000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>0.22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>117.1448</v>
       </c>
-      <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
         <v>89.204700000000003</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>117.1448</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>0.23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>120.08499999999999</v>
       </c>
-      <c r="C25" s="2">
-        <v>100</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
         <v>90.820999999999998</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>120.08499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>0.24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>122.9952</v>
       </c>
-      <c r="C26" s="2">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
         <v>92.296199999999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>122.9952</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>0.25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>125.5938</v>
       </c>
-      <c r="C27" s="2">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
         <v>98.002399999999994</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>125.5938</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>0.26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>128.0592</v>
       </c>
-      <c r="C28" s="2">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
         <v>99.999399999999994</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>128.0592</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>0.27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>130.91300000000001</v>
       </c>
-      <c r="C29" s="2">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
         <v>130.91300000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>132.97319999999999</v>
       </c>
-      <c r="C30" s="2">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
         <v>99.999799999999993</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>132.97319999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>135.64279999999999</v>
       </c>
-      <c r="C31" s="2">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
         <v>135.64279999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>0.3</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>138.01439999999999</v>
       </c>
-      <c r="C32" s="2">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
         <v>100.0004</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>138.01439999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>0.31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>140.05340000000001</v>
       </c>
-      <c r="C33" s="2">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
         <v>140.05340000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>0.32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>142.3716</v>
       </c>
-      <c r="C34" s="2">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2">
-        <v>100</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
         <v>142.3716</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>0.33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>144.47380000000001</v>
       </c>
-      <c r="C35" s="2">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
         <v>144.47380000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>0.34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>146.3432</v>
       </c>
-      <c r="C36" s="2">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
         <v>146.3432</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>0.35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>148.595</v>
       </c>
-      <c r="C37" s="2">
-        <v>100</v>
-      </c>
-      <c r="D37" s="2">
-        <v>100</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
         <v>148.595</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>0.36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>150.3648</v>
       </c>
-      <c r="C38" s="2">
-        <v>100</v>
-      </c>
-      <c r="D38" s="2">
-        <v>100</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
         <v>150.3648</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>0.37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>152.41980000000001</v>
       </c>
-      <c r="C39" s="2">
-        <v>100</v>
-      </c>
-      <c r="D39" s="2">
-        <v>100</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
         <v>152.41980000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>0.38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>154.10239999999999</v>
       </c>
-      <c r="C40" s="2">
-        <v>100</v>
-      </c>
-      <c r="D40" s="2">
-        <v>100</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
         <v>154.10239999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>0.39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>155.90559999999999</v>
       </c>
-      <c r="C41" s="2">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2">
-        <v>100</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
         <v>155.90559999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>0.4</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>157.73920000000001</v>
       </c>
-      <c r="C42" s="2">
-        <v>100</v>
-      </c>
-      <c r="D42" s="2">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
         <v>157.73920000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>0.41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>159.36099999999999</v>
       </c>
-      <c r="C43" s="2">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
         <v>159.36099999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>0.42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>160.94579999999999</v>
       </c>
-      <c r="C44" s="2">
-        <v>100</v>
-      </c>
-      <c r="D44" s="2">
-        <v>100</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
         <v>160.94579999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>0.43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>162.4118</v>
       </c>
-      <c r="C45" s="2">
-        <v>100</v>
-      </c>
-      <c r="D45" s="2">
-        <v>100</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
         <v>162.4118</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>0.44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>163.881</v>
       </c>
-      <c r="C46" s="2">
-        <v>100</v>
-      </c>
-      <c r="D46" s="2">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
         <v>163.881</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>0.45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>165.53020000000001</v>
       </c>
-      <c r="C47" s="2">
-        <v>100</v>
-      </c>
-      <c r="D47" s="2">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
         <v>165.53020000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>0.46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>166.85640000000001</v>
       </c>
-      <c r="C48" s="2">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
         <v>166.85640000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>0.47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>168.12219999999999</v>
       </c>
-      <c r="C49" s="2">
-        <v>100</v>
-      </c>
-      <c r="D49" s="2">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
         <v>168.12219999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>0.48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>169.51419999999999</v>
       </c>
-      <c r="C50" s="2">
-        <v>100</v>
-      </c>
-      <c r="D50" s="2">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
         <v>169.51419999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>0.49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>170.76300000000001</v>
       </c>
-      <c r="C51" s="2">
-        <v>100</v>
-      </c>
-      <c r="D51" s="2">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
         <v>170.76300000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>0.5</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>172.02</v>
       </c>
-      <c r="C52" s="2">
-        <v>100</v>
-      </c>
-      <c r="D52" s="2">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
         <v>172.02</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>0.51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>173.21180000000001</v>
       </c>
-      <c r="C53" s="2">
-        <v>100</v>
-      </c>
-      <c r="D53" s="2">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
         <v>173.21180000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>0.52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>174.41560000000001</v>
       </c>
-      <c r="C54" s="2">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
         <v>174.41560000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>0.53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>175.50360000000001</v>
       </c>
-      <c r="C55" s="2">
-        <v>100</v>
-      </c>
-      <c r="D55" s="2">
-        <v>100</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
         <v>175.50360000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>0.54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>176.72120000000001</v>
       </c>
-      <c r="C56" s="2">
-        <v>100</v>
-      </c>
-      <c r="D56" s="2">
-        <v>100</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
         <v>176.72120000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>177.6506</v>
       </c>
-      <c r="C57" s="2">
-        <v>100</v>
-      </c>
-      <c r="D57" s="2">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
         <v>177.6506</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>178.76939999999999</v>
       </c>
-      <c r="C58" s="2">
-        <v>100</v>
-      </c>
-      <c r="D58" s="2">
-        <v>100</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
         <v>178.76939999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>179.7354</v>
       </c>
-      <c r="C59" s="2">
-        <v>100</v>
-      </c>
-      <c r="D59" s="2">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
         <v>179.7354</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>180.66800000000001</v>
       </c>
-      <c r="C60" s="2">
-        <v>100</v>
-      </c>
-      <c r="D60" s="2">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
         <v>180.66800000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>0.59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>181.79140000000001</v>
       </c>
-      <c r="C61" s="2">
-        <v>100</v>
-      </c>
-      <c r="D61" s="2">
-        <v>100</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
         <v>181.79140000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>0.6</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>182.64879999999999</v>
       </c>
-      <c r="C62" s="2">
-        <v>100</v>
-      </c>
-      <c r="D62" s="2">
-        <v>100</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
         <v>182.64879999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>0.61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>183.33320000000001</v>
       </c>
-      <c r="C63" s="2">
-        <v>100</v>
-      </c>
-      <c r="D63" s="2">
-        <v>100</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
         <v>183.33320000000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>0.62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>184.2636</v>
       </c>
-      <c r="C64" s="2">
-        <v>100</v>
-      </c>
-      <c r="D64" s="2">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
         <v>184.2636</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>0.63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>185.0316</v>
       </c>
-      <c r="C65" s="2">
-        <v>100</v>
-      </c>
-      <c r="D65" s="2">
-        <v>100</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
         <v>185.0316</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>0.64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>185.97040000000001</v>
       </c>
-      <c r="C66" s="2">
-        <v>100</v>
-      </c>
-      <c r="D66" s="2">
-        <v>100</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
         <v>185.97040000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>0.65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>186.67339999999999</v>
       </c>
-      <c r="C67" s="2">
-        <v>100</v>
-      </c>
-      <c r="D67" s="2">
-        <v>100</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67">
         <v>186.67339999999999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>0.66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>187.35239999999999</v>
       </c>
-      <c r="C68" s="2">
-        <v>100</v>
-      </c>
-      <c r="D68" s="2">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
         <v>187.35239999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>0.67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>188.0316</v>
       </c>
-      <c r="C69" s="2">
-        <v>100</v>
-      </c>
-      <c r="D69" s="2">
-        <v>100</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
         <v>188.0316</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>0.68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>188.7098</v>
       </c>
-      <c r="C70" s="2">
-        <v>100</v>
-      </c>
-      <c r="D70" s="2">
-        <v>100</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
         <v>188.7098</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>0.69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>189.20259999999999</v>
       </c>
-      <c r="C71" s="2">
-        <v>100</v>
-      </c>
-      <c r="D71" s="2">
-        <v>100</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
         <v>189.20259999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>0.7</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>189.88040000000001</v>
       </c>
-      <c r="C72" s="2">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2">
-        <v>100</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
         <v>189.88040000000001</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>0.71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>190.54859999999999</v>
       </c>
-      <c r="C73" s="2">
-        <v>100</v>
-      </c>
-      <c r="D73" s="2">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
         <v>190.54859999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>0.72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>191.06460000000001</v>
       </c>
-      <c r="C74" s="2">
-        <v>100</v>
-      </c>
-      <c r="D74" s="2">
-        <v>100</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
         <v>191.06460000000001</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>0.73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>191.59719999999999</v>
       </c>
-      <c r="C75" s="2">
-        <v>100</v>
-      </c>
-      <c r="D75" s="2">
-        <v>100</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
         <v>191.59719999999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>0.74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>192.095</v>
       </c>
-      <c r="C76" s="2">
-        <v>100</v>
-      </c>
-      <c r="D76" s="2">
-        <v>100</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
         <v>192.095</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>0.75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>192.62100000000001</v>
       </c>
-      <c r="C77" s="2">
-        <v>100</v>
-      </c>
-      <c r="D77" s="2">
-        <v>100</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
         <v>192.62100000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>0.76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>193.05860000000001</v>
       </c>
-      <c r="C78" s="2">
-        <v>100</v>
-      </c>
-      <c r="D78" s="2">
-        <v>100</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
         <v>193.05860000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>0.77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>193.49299999999999</v>
       </c>
-      <c r="C79" s="2">
-        <v>100</v>
-      </c>
-      <c r="D79" s="2">
-        <v>100</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
         <v>193.49299999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>0.78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>193.8888</v>
       </c>
-      <c r="C80" s="2">
-        <v>100</v>
-      </c>
-      <c r="D80" s="2">
-        <v>100</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
         <v>193.8888</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>0.79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>194.2808</v>
       </c>
-      <c r="C81" s="2">
-        <v>100</v>
-      </c>
-      <c r="D81" s="2">
-        <v>100</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
         <v>194.2808</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>0.8</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>194.64259999999999</v>
       </c>
-      <c r="C82" s="2">
-        <v>100</v>
-      </c>
-      <c r="D82" s="2">
-        <v>100</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
         <v>194.64259999999999</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>0.81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>194.99160000000001</v>
       </c>
-      <c r="C83" s="2">
-        <v>100</v>
-      </c>
-      <c r="D83" s="2">
-        <v>100</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
         <v>194.99160000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>0.82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>195.29679999999999</v>
       </c>
-      <c r="C84" s="2">
-        <v>100</v>
-      </c>
-      <c r="D84" s="2">
-        <v>100</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
         <v>195.29679999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>0.83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>195.64279999999999</v>
       </c>
-      <c r="C85" s="2">
-        <v>100</v>
-      </c>
-      <c r="D85" s="2">
-        <v>100</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
         <v>195.64279999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>0.84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>195.91139999999999</v>
       </c>
-      <c r="C86" s="2">
-        <v>100</v>
-      </c>
-      <c r="D86" s="2">
-        <v>100</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
         <v>195.91139999999999</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>0.85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>196.17740000000001</v>
       </c>
-      <c r="C87" s="2">
-        <v>100</v>
-      </c>
-      <c r="D87" s="2">
-        <v>100</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
         <v>196.17740000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>0.86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>196.43719999999999</v>
       </c>
-      <c r="C88" s="2">
-        <v>100</v>
-      </c>
-      <c r="D88" s="2">
-        <v>100</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
         <v>196.43719999999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>0.87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>196.6848</v>
       </c>
-      <c r="C89" s="2">
-        <v>100</v>
-      </c>
-      <c r="D89" s="2">
-        <v>100</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
         <v>196.6848</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>0.88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>196.89599999999999</v>
       </c>
-      <c r="C90" s="2">
-        <v>100</v>
-      </c>
-      <c r="D90" s="2">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90">
         <v>196.89599999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>0.89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>197.04839999999999</v>
       </c>
-      <c r="C91" s="2">
-        <v>100</v>
-      </c>
-      <c r="D91" s="2">
-        <v>100</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91">
         <v>197.04839999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>0.9</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>197.202</v>
       </c>
-      <c r="C92" s="2">
-        <v>100</v>
-      </c>
-      <c r="D92" s="2">
-        <v>100</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92">
         <v>197.202</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>0.91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>197.37260000000001</v>
       </c>
-      <c r="C93" s="2">
-        <v>100</v>
-      </c>
-      <c r="D93" s="2">
-        <v>100</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93">
         <v>197.37260000000001</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>0.92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>197.5078</v>
       </c>
-      <c r="C94" s="2">
-        <v>100</v>
-      </c>
-      <c r="D94" s="2">
-        <v>100</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+      <c r="E94">
         <v>197.5078</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>0.93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>197.62260000000001</v>
       </c>
-      <c r="C95" s="2">
-        <v>100</v>
-      </c>
-      <c r="D95" s="2">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+      <c r="E95">
         <v>197.62260000000001</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>0.94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>197.715</v>
       </c>
-      <c r="C96" s="2">
-        <v>100</v>
-      </c>
-      <c r="D96" s="2">
-        <v>100</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96">
         <v>197.715</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>0.95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>197.80459999999999</v>
       </c>
-      <c r="C97" s="2">
-        <v>100</v>
-      </c>
-      <c r="D97" s="2">
-        <v>100</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97">
         <v>197.80459999999999</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>0.96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>197.87899999999999</v>
       </c>
-      <c r="C98" s="2">
-        <v>100</v>
-      </c>
-      <c r="D98" s="2">
-        <v>100</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98">
         <v>197.87899999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>0.97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>197.9298</v>
       </c>
-      <c r="C99" s="2">
-        <v>100</v>
-      </c>
-      <c r="D99" s="2">
-        <v>100</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="C99">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+      <c r="E99">
         <v>197.9298</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>0.98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>197.97040000000001</v>
       </c>
-      <c r="C100" s="2">
-        <v>100</v>
-      </c>
-      <c r="D100" s="2">
-        <v>100</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
         <v>197.97040000000001</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>0.99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>197.99299999999999</v>
       </c>
-      <c r="C101" s="2">
-        <v>100</v>
-      </c>
-      <c r="D101" s="2">
-        <v>100</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101">
         <v>197.99299999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>1</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>198</v>
       </c>
-      <c r="C102" s="2">
-        <v>100</v>
-      </c>
-      <c r="D102" s="2">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
         <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>198</v>
       </c>
-      <c r="C103" s="2">
-        <v>100</v>
-      </c>
-      <c r="D103" s="2">
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
         <v>100.0004</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <v>198</v>
       </c>
     </row>
@@ -9731,7 +9710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16663,5 +16642,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>